--- a/CRP Document/CRP 간트 차트.xlsx
+++ b/CRP Document/CRP 간트 차트.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CRP&amp;STUDY\CRP Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{470DD0AE-C1DF-4C06-8B55-A66BD4EA27B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD61BA5-A7C4-45C5-A521-DB0C36790FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="갠트 차트 템플릿" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'갠트 차트 템플릿'!$A$1:$CP$75</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1320,8 +1323,11 @@
     <xf numFmtId="0" fontId="23" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1331,27 +1337,24 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1680,11 +1683,12 @@
   <sheetPr>
     <tabColor rgb="FF3D85C6"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:CP75"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V59" sqref="V59"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:CP75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
@@ -1800,14 +1804,14 @@
     </row>
     <row r="2" spans="1:94" ht="21" customHeight="1" thickBot="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="108" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
       <c r="H2" s="11"/>
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
@@ -1817,81 +1821,81 @@
       <c r="N2" s="12"/>
       <c r="O2" s="12"/>
       <c r="P2" s="12"/>
-      <c r="Q2" s="102"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="98"/>
-      <c r="V2" s="98"/>
-      <c r="W2" s="103"/>
-      <c r="X2" s="98"/>
-      <c r="Y2" s="98"/>
-      <c r="Z2" s="98"/>
-      <c r="AA2" s="98"/>
-      <c r="AB2" s="98"/>
-      <c r="AC2" s="98"/>
-      <c r="AD2" s="98"/>
-      <c r="AE2" s="98"/>
-      <c r="AF2" s="98"/>
-      <c r="AG2" s="98"/>
-      <c r="AH2" s="98"/>
-      <c r="AI2" s="98"/>
-      <c r="AJ2" s="98"/>
-      <c r="AK2" s="98"/>
-      <c r="AL2" s="98"/>
-      <c r="AM2" s="98"/>
-      <c r="AN2" s="98"/>
-      <c r="AO2" s="98"/>
-      <c r="AP2" s="103"/>
-      <c r="AQ2" s="98"/>
-      <c r="AR2" s="98"/>
-      <c r="AS2" s="98"/>
-      <c r="AT2" s="98"/>
-      <c r="AU2" s="98"/>
-      <c r="AV2" s="98"/>
-      <c r="AW2" s="98"/>
-      <c r="AX2" s="98"/>
-      <c r="AY2" s="98"/>
-      <c r="AZ2" s="98"/>
-      <c r="BA2" s="98"/>
-      <c r="BB2" s="98"/>
-      <c r="BC2" s="98"/>
-      <c r="BD2" s="98"/>
-      <c r="BE2" s="98"/>
-      <c r="BF2" s="98"/>
-      <c r="BG2" s="98"/>
-      <c r="BH2" s="98"/>
-      <c r="BI2" s="103"/>
-      <c r="BJ2" s="98"/>
-      <c r="BK2" s="98"/>
-      <c r="BL2" s="98"/>
-      <c r="BM2" s="98"/>
-      <c r="BN2" s="98"/>
-      <c r="BO2" s="98"/>
-      <c r="BP2" s="98"/>
-      <c r="BQ2" s="98"/>
-      <c r="BR2" s="98"/>
-      <c r="BS2" s="98"/>
-      <c r="BT2" s="98"/>
-      <c r="BU2" s="98"/>
-      <c r="BV2" s="98"/>
-      <c r="BW2" s="98"/>
-      <c r="BX2" s="98"/>
-      <c r="BY2" s="98"/>
-      <c r="BZ2" s="98"/>
-      <c r="CA2" s="98"/>
-      <c r="CB2" s="103"/>
-      <c r="CC2" s="98"/>
-      <c r="CD2" s="98"/>
-      <c r="CE2" s="98"/>
-      <c r="CF2" s="98"/>
-      <c r="CG2" s="98"/>
-      <c r="CH2" s="98"/>
-      <c r="CI2" s="98"/>
-      <c r="CJ2" s="98"/>
-      <c r="CK2" s="98"/>
-      <c r="CL2" s="98"/>
-      <c r="CM2" s="98"/>
+      <c r="Q2" s="109"/>
+      <c r="R2" s="99"/>
+      <c r="S2" s="99"/>
+      <c r="T2" s="99"/>
+      <c r="U2" s="99"/>
+      <c r="V2" s="99"/>
+      <c r="W2" s="98"/>
+      <c r="X2" s="99"/>
+      <c r="Y2" s="99"/>
+      <c r="Z2" s="99"/>
+      <c r="AA2" s="99"/>
+      <c r="AB2" s="99"/>
+      <c r="AC2" s="99"/>
+      <c r="AD2" s="99"/>
+      <c r="AE2" s="99"/>
+      <c r="AF2" s="99"/>
+      <c r="AG2" s="99"/>
+      <c r="AH2" s="99"/>
+      <c r="AI2" s="99"/>
+      <c r="AJ2" s="99"/>
+      <c r="AK2" s="99"/>
+      <c r="AL2" s="99"/>
+      <c r="AM2" s="99"/>
+      <c r="AN2" s="99"/>
+      <c r="AO2" s="99"/>
+      <c r="AP2" s="98"/>
+      <c r="AQ2" s="99"/>
+      <c r="AR2" s="99"/>
+      <c r="AS2" s="99"/>
+      <c r="AT2" s="99"/>
+      <c r="AU2" s="99"/>
+      <c r="AV2" s="99"/>
+      <c r="AW2" s="99"/>
+      <c r="AX2" s="99"/>
+      <c r="AY2" s="99"/>
+      <c r="AZ2" s="99"/>
+      <c r="BA2" s="99"/>
+      <c r="BB2" s="99"/>
+      <c r="BC2" s="99"/>
+      <c r="BD2" s="99"/>
+      <c r="BE2" s="99"/>
+      <c r="BF2" s="99"/>
+      <c r="BG2" s="99"/>
+      <c r="BH2" s="99"/>
+      <c r="BI2" s="98"/>
+      <c r="BJ2" s="99"/>
+      <c r="BK2" s="99"/>
+      <c r="BL2" s="99"/>
+      <c r="BM2" s="99"/>
+      <c r="BN2" s="99"/>
+      <c r="BO2" s="99"/>
+      <c r="BP2" s="99"/>
+      <c r="BQ2" s="99"/>
+      <c r="BR2" s="99"/>
+      <c r="BS2" s="99"/>
+      <c r="BT2" s="99"/>
+      <c r="BU2" s="99"/>
+      <c r="BV2" s="99"/>
+      <c r="BW2" s="99"/>
+      <c r="BX2" s="99"/>
+      <c r="BY2" s="99"/>
+      <c r="BZ2" s="99"/>
+      <c r="CA2" s="99"/>
+      <c r="CB2" s="98"/>
+      <c r="CC2" s="99"/>
+      <c r="CD2" s="99"/>
+      <c r="CE2" s="99"/>
+      <c r="CF2" s="99"/>
+      <c r="CG2" s="99"/>
+      <c r="CH2" s="99"/>
+      <c r="CI2" s="99"/>
+      <c r="CJ2" s="99"/>
+      <c r="CK2" s="99"/>
+      <c r="CL2" s="99"/>
+      <c r="CM2" s="99"/>
     </row>
     <row r="3" spans="1:94" ht="21" customHeight="1" thickTop="1">
       <c r="A3" s="1"/>
@@ -1991,16 +1995,16 @@
     </row>
     <row r="4" spans="1:94" ht="21" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="99" t="s">
+      <c r="B4" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="100"/>
-      <c r="D4" s="101" t="s">
+      <c r="C4" s="101"/>
+      <c r="D4" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
       <c r="H4" s="15"/>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
@@ -2010,30 +2014,30 @@
       <c r="N4" s="16"/>
       <c r="O4" s="16"/>
       <c r="P4" s="17"/>
-      <c r="Q4" s="99" t="s">
+      <c r="Q4" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="R4" s="100"/>
-      <c r="S4" s="100"/>
-      <c r="T4" s="100"/>
-      <c r="U4" s="100"/>
-      <c r="V4" s="100"/>
-      <c r="W4" s="100"/>
-      <c r="X4" s="101" t="s">
+      <c r="R4" s="101"/>
+      <c r="S4" s="101"/>
+      <c r="T4" s="101"/>
+      <c r="U4" s="101"/>
+      <c r="V4" s="101"/>
+      <c r="W4" s="101"/>
+      <c r="X4" s="102" t="s">
         <v>57</v>
       </c>
-      <c r="Y4" s="100"/>
-      <c r="Z4" s="100"/>
-      <c r="AA4" s="100"/>
-      <c r="AB4" s="100"/>
-      <c r="AC4" s="100"/>
-      <c r="AD4" s="100"/>
-      <c r="AE4" s="100"/>
-      <c r="AF4" s="100"/>
-      <c r="AG4" s="100"/>
-      <c r="AH4" s="100"/>
-      <c r="AI4" s="100"/>
-      <c r="AJ4" s="100"/>
+      <c r="Y4" s="101"/>
+      <c r="Z4" s="101"/>
+      <c r="AA4" s="101"/>
+      <c r="AB4" s="101"/>
+      <c r="AC4" s="101"/>
+      <c r="AD4" s="101"/>
+      <c r="AE4" s="101"/>
+      <c r="AF4" s="101"/>
+      <c r="AG4" s="101"/>
+      <c r="AH4" s="101"/>
+      <c r="AI4" s="101"/>
+      <c r="AJ4" s="101"/>
       <c r="AK4" s="18"/>
       <c r="AL4" s="9"/>
       <c r="AM4" s="9"/>
@@ -2095,16 +2099,16 @@
     </row>
     <row r="5" spans="1:94" ht="21" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="99" t="s">
+      <c r="B5" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="100"/>
-      <c r="D5" s="101" t="s">
+      <c r="C5" s="101"/>
+      <c r="D5" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="101"/>
       <c r="H5" s="19"/>
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
@@ -2114,29 +2118,29 @@
       <c r="N5" s="16"/>
       <c r="O5" s="16"/>
       <c r="P5" s="17"/>
-      <c r="Q5" s="99" t="s">
+      <c r="Q5" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="100"/>
-      <c r="S5" s="100"/>
-      <c r="T5" s="100"/>
-      <c r="U5" s="100"/>
-      <c r="V5" s="100"/>
-      <c r="W5" s="100"/>
-      <c r="X5" s="101" t="s">
+      <c r="R5" s="101"/>
+      <c r="S5" s="101"/>
+      <c r="T5" s="101"/>
+      <c r="U5" s="101"/>
+      <c r="V5" s="101"/>
+      <c r="W5" s="101"/>
+      <c r="X5" s="102" t="s">
         <v>67</v>
       </c>
-      <c r="Y5" s="100"/>
-      <c r="Z5" s="100"/>
-      <c r="AA5" s="100"/>
-      <c r="AB5" s="100"/>
-      <c r="AC5" s="100"/>
-      <c r="AD5" s="100"/>
-      <c r="AE5" s="100"/>
-      <c r="AF5" s="100"/>
-      <c r="AG5" s="100"/>
-      <c r="AH5" s="100"/>
-      <c r="AI5" s="100"/>
+      <c r="Y5" s="101"/>
+      <c r="Z5" s="101"/>
+      <c r="AA5" s="101"/>
+      <c r="AB5" s="101"/>
+      <c r="AC5" s="101"/>
+      <c r="AD5" s="101"/>
+      <c r="AE5" s="101"/>
+      <c r="AF5" s="101"/>
+      <c r="AG5" s="101"/>
+      <c r="AH5" s="101"/>
+      <c r="AI5" s="101"/>
       <c r="AJ5" s="20"/>
       <c r="AK5" s="18"/>
       <c r="AL5" s="1"/>
@@ -2199,16 +2203,16 @@
     </row>
     <row r="6" spans="1:94" ht="21" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="99" t="s">
+      <c r="B6" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="100"/>
-      <c r="D6" s="101" t="s">
+      <c r="C6" s="101"/>
+      <c r="D6" s="102" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
       <c r="H6" s="6"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
@@ -2299,12 +2303,12 @@
     </row>
     <row r="7" spans="1:94" ht="21" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="99"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
       <c r="H7" s="6"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
@@ -2395,131 +2399,131 @@
     </row>
     <row r="8" spans="1:94" ht="17.25" customHeight="1">
       <c r="A8" s="22"/>
-      <c r="B8" s="104" t="s">
+      <c r="B8" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="104" t="s">
+      <c r="C8" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="104" t="s">
+      <c r="D8" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="104" t="s">
+      <c r="E8" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="104" t="s">
+      <c r="F8" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="104" t="s">
+      <c r="G8" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="104" t="s">
+      <c r="H8" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="107" t="s">
+      <c r="I8" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="105"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="105"/>
-      <c r="M8" s="105"/>
-      <c r="N8" s="105"/>
-      <c r="O8" s="105"/>
-      <c r="P8" s="105"/>
-      <c r="Q8" s="105"/>
-      <c r="R8" s="105"/>
-      <c r="S8" s="105"/>
-      <c r="T8" s="105"/>
-      <c r="U8" s="105"/>
-      <c r="V8" s="105"/>
-      <c r="W8" s="105"/>
-      <c r="X8" s="105"/>
-      <c r="Y8" s="108" t="s">
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="104"/>
+      <c r="N8" s="104"/>
+      <c r="O8" s="104"/>
+      <c r="P8" s="104"/>
+      <c r="Q8" s="104"/>
+      <c r="R8" s="104"/>
+      <c r="S8" s="104"/>
+      <c r="T8" s="104"/>
+      <c r="U8" s="104"/>
+      <c r="V8" s="104"/>
+      <c r="W8" s="104"/>
+      <c r="X8" s="104"/>
+      <c r="Y8" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="Z8" s="105"/>
-      <c r="AA8" s="105"/>
-      <c r="AB8" s="105"/>
-      <c r="AC8" s="105"/>
-      <c r="AD8" s="105"/>
-      <c r="AE8" s="105"/>
-      <c r="AF8" s="105"/>
-      <c r="AG8" s="105"/>
-      <c r="AH8" s="105"/>
-      <c r="AI8" s="105"/>
-      <c r="AJ8" s="105"/>
-      <c r="AK8" s="105"/>
-      <c r="AL8" s="105"/>
-      <c r="AM8" s="105"/>
-      <c r="AN8" s="105"/>
-      <c r="AO8" s="105"/>
-      <c r="AP8" s="105"/>
-      <c r="AQ8" s="105"/>
-      <c r="AR8" s="105"/>
-      <c r="AS8" s="105"/>
-      <c r="AT8" s="105"/>
-      <c r="AU8" s="105"/>
-      <c r="AV8" s="105"/>
-      <c r="AW8" s="105"/>
-      <c r="AX8" s="105"/>
-      <c r="AY8" s="105"/>
-      <c r="AZ8" s="105"/>
-      <c r="BA8" s="105"/>
-      <c r="BB8" s="105"/>
-      <c r="BC8" s="109" t="s">
+      <c r="Z8" s="104"/>
+      <c r="AA8" s="104"/>
+      <c r="AB8" s="104"/>
+      <c r="AC8" s="104"/>
+      <c r="AD8" s="104"/>
+      <c r="AE8" s="104"/>
+      <c r="AF8" s="104"/>
+      <c r="AG8" s="104"/>
+      <c r="AH8" s="104"/>
+      <c r="AI8" s="104"/>
+      <c r="AJ8" s="104"/>
+      <c r="AK8" s="104"/>
+      <c r="AL8" s="104"/>
+      <c r="AM8" s="104"/>
+      <c r="AN8" s="104"/>
+      <c r="AO8" s="104"/>
+      <c r="AP8" s="104"/>
+      <c r="AQ8" s="104"/>
+      <c r="AR8" s="104"/>
+      <c r="AS8" s="104"/>
+      <c r="AT8" s="104"/>
+      <c r="AU8" s="104"/>
+      <c r="AV8" s="104"/>
+      <c r="AW8" s="104"/>
+      <c r="AX8" s="104"/>
+      <c r="AY8" s="104"/>
+      <c r="AZ8" s="104"/>
+      <c r="BA8" s="104"/>
+      <c r="BB8" s="104"/>
+      <c r="BC8" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="BD8" s="105"/>
-      <c r="BE8" s="105"/>
-      <c r="BF8" s="105"/>
-      <c r="BG8" s="105"/>
-      <c r="BH8" s="105"/>
-      <c r="BI8" s="105"/>
-      <c r="BJ8" s="105"/>
-      <c r="BK8" s="105"/>
-      <c r="BL8" s="105"/>
-      <c r="BM8" s="105"/>
-      <c r="BN8" s="105"/>
-      <c r="BO8" s="105"/>
-      <c r="BP8" s="105"/>
-      <c r="BQ8" s="105"/>
-      <c r="BR8" s="105"/>
-      <c r="BS8" s="105"/>
-      <c r="BT8" s="105"/>
-      <c r="BU8" s="105"/>
-      <c r="BV8" s="105"/>
-      <c r="BW8" s="105"/>
-      <c r="BX8" s="105"/>
-      <c r="BY8" s="105"/>
-      <c r="BZ8" s="105"/>
-      <c r="CA8" s="105"/>
-      <c r="CB8" s="105"/>
-      <c r="CC8" s="105"/>
-      <c r="CD8" s="105"/>
-      <c r="CE8" s="105"/>
-      <c r="CF8" s="105"/>
-      <c r="CG8" s="105"/>
-      <c r="CH8" s="106" t="s">
+      <c r="BD8" s="104"/>
+      <c r="BE8" s="104"/>
+      <c r="BF8" s="104"/>
+      <c r="BG8" s="104"/>
+      <c r="BH8" s="104"/>
+      <c r="BI8" s="104"/>
+      <c r="BJ8" s="104"/>
+      <c r="BK8" s="104"/>
+      <c r="BL8" s="104"/>
+      <c r="BM8" s="104"/>
+      <c r="BN8" s="104"/>
+      <c r="BO8" s="104"/>
+      <c r="BP8" s="104"/>
+      <c r="BQ8" s="104"/>
+      <c r="BR8" s="104"/>
+      <c r="BS8" s="104"/>
+      <c r="BT8" s="104"/>
+      <c r="BU8" s="104"/>
+      <c r="BV8" s="104"/>
+      <c r="BW8" s="104"/>
+      <c r="BX8" s="104"/>
+      <c r="BY8" s="104"/>
+      <c r="BZ8" s="104"/>
+      <c r="CA8" s="104"/>
+      <c r="CB8" s="104"/>
+      <c r="CC8" s="104"/>
+      <c r="CD8" s="104"/>
+      <c r="CE8" s="104"/>
+      <c r="CF8" s="104"/>
+      <c r="CG8" s="104"/>
+      <c r="CH8" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="CI8" s="106"/>
-      <c r="CJ8" s="106"/>
-      <c r="CK8" s="106"/>
-      <c r="CL8" s="106"/>
-      <c r="CM8" s="106"/>
-      <c r="CN8" s="106"/>
-      <c r="CO8" s="106"/>
-      <c r="CP8" s="106"/>
+      <c r="CI8" s="97"/>
+      <c r="CJ8" s="97"/>
+      <c r="CK8" s="97"/>
+      <c r="CL8" s="97"/>
+      <c r="CM8" s="97"/>
+      <c r="CN8" s="97"/>
+      <c r="CO8" s="97"/>
+      <c r="CP8" s="97"/>
     </row>
     <row r="9" spans="1:94" ht="17.25" customHeight="1">
       <c r="A9" s="23"/>
-      <c r="B9" s="105"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
+      <c r="B9" s="104"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="104"/>
       <c r="I9" s="24">
         <v>16</v>
       </c>
@@ -2781,13 +2785,13 @@
     </row>
     <row r="10" spans="1:94" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="23"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="105"/>
+      <c r="B10" s="104"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="104"/>
       <c r="I10" s="28" t="s">
         <v>19</v>
       </c>
@@ -10231,6 +10235,24 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="Q2:V2"/>
+    <mergeCell ref="W2:AO2"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="D7:G7"/>
     <mergeCell ref="CH8:CP8"/>
     <mergeCell ref="AP2:BH2"/>
     <mergeCell ref="BI2:CA2"/>
@@ -10242,24 +10264,6 @@
     <mergeCell ref="I8:X8"/>
     <mergeCell ref="Y8:BB8"/>
     <mergeCell ref="BC8:CG8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="Q2:V2"/>
-    <mergeCell ref="W2:AO2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H12:H26 H28:H75">
@@ -10282,7 +10286,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="34" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>